--- a/config_debug/fake_broadcast_server.xlsx
+++ b/config_debug/fake_broadcast_server.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>qiaoqiaole_cjj_award_big_award</t>
+  </si>
+  <si>
+    <t>fish_game_3d_kill_boss_1</t>
+  </si>
+  <si>
+    <t>fish_game_3d_kill_boss_2</t>
   </si>
 </sst>
 </file>
@@ -198,8 +204,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -217,6 +223,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -224,9 +244,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,8 +296,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,6 +306,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -262,35 +321,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -306,55 +358,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,7 +375,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,7 +423,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,25 +459,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,13 +507,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,31 +537,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,79 +549,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,15 +566,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -583,6 +580,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,16 +611,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -637,10 +645,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -668,10 +674,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -680,133 +686,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1216,10 +1222,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="I110" sqref="I110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -2800,19 +2806,551 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="2:6">
-      <c r="B88" s="4"/>
+    <row r="88" spans="1:6">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="C88" s="4"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-    </row>
-    <row r="89" spans="2:6">
-      <c r="B89" s="4"/>
+      <c r="D88" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E88" s="4">
+        <v>116</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="C89" s="4"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
+      <c r="D89" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E89" s="4">
+        <v>116</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E90" s="4">
+        <v>116</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E91" s="4">
+        <v>116</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E92" s="4">
+        <v>116</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E93" s="4">
+        <v>116</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E94" s="4">
+        <v>116</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E95" s="4">
+        <v>116</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E96" s="4">
+        <v>116</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E97" s="4">
+        <v>116</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E98" s="4">
+        <v>116</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="2">
+        <v>98</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E99" s="4">
+        <v>116</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="2">
+        <v>99</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E100" s="4">
+        <v>116</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="2">
+        <v>100</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E101" s="4">
+        <v>116</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="2">
+        <v>101</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E102" s="4">
+        <v>116</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="2">
+        <v>102</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E103" s="4">
+        <v>116</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="2">
+        <v>103</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E104" s="4">
+        <v>116</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="2">
+        <v>104</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E105" s="4">
+        <v>116</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="2">
+        <v>105</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E106" s="4">
+        <v>116</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="2">
+        <v>106</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E107" s="4">
+        <v>116</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="2">
+        <v>107</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E108" s="4">
+        <v>116</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="2">
+        <v>108</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E109" s="4">
+        <v>116</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="2">
+        <v>109</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E110" s="4">
+        <v>116</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="2">
+        <v>110</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E111" s="4">
+        <v>116</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="2">
+        <v>111</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E112" s="4">
+        <v>116</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="2">
+        <v>112</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E113" s="4">
+        <v>116</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="2">
+        <v>113</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E114" s="4">
+        <v>116</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="2">
+        <v>114</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E115" s="4">
+        <v>116</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="2">
+        <v>115</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E116" s="4">
+        <v>116</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="2">
+        <v>116</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E117" s="4">
+        <v>116</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="2">
+        <v>117</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E118" s="4">
+        <v>116</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="2">
+        <v>118</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E119" s="4">
+        <v>116</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/fake_broadcast_server.xlsx
+++ b/config_debug/fake_broadcast_server.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -195,6 +195,18 @@
   </si>
   <si>
     <t>fish_game_3d_kill_boss_2</t>
+  </si>
+  <si>
+    <t>super_treasure_award</t>
+  </si>
+  <si>
+    <t>4750</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>100000000</t>
   </si>
 </sst>
 </file>
@@ -202,10 +214,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -223,6 +235,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -236,44 +294,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -296,9 +318,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,7 +327,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,8 +356,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,33 +371,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,7 +387,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,25 +471,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,121 +519,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,13 +543,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,6 +578,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -580,6 +616,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,43 +655,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -674,10 +686,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,133 +698,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1222,10 +1234,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F119"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="I110" sqref="I110"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="G123" sqref="G123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -3352,6 +3364,60 @@
         <v>15</v>
       </c>
     </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="2">
+        <v>119</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" s="4">
+        <v>116</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="2">
+        <v>120</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" s="4">
+        <v>116</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="2">
+        <v>121</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" s="2"/>
+      <c r="E122" s="4">
+        <v>116</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300"/>

--- a/config_debug/fake_broadcast_server.xlsx
+++ b/config_debug/fake_broadcast_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="16350" windowHeight="10260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -200,13 +200,13 @@
     <t>super_treasure_award</t>
   </si>
   <si>
-    <t>4750</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>100000000</t>
+    <t>4750福利券</t>
+  </si>
+  <si>
+    <t>400000福利券</t>
+  </si>
+  <si>
+    <t>100000000金币</t>
   </si>
 </sst>
 </file>
@@ -215,8 +215,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -235,7 +235,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,31 +257,30 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,8 +293,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,17 +363,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,59 +373,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,7 +387,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,7 +459,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,55 +495,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,37 +519,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,49 +549,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,17 +590,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,20 +614,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,28 +655,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,10 +686,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -698,133 +698,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1237,7 +1237,7 @@
   <dimension ref="A1:F122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="G123" sqref="G123"/>
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>

--- a/config_debug/fake_broadcast_server.xlsx
+++ b/config_debug/fake_broadcast_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16350" windowHeight="10260" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -206,7 +206,7 @@
     <t>400000福利券</t>
   </si>
   <si>
-    <t>100000000金币</t>
+    <t>1亿金币</t>
   </si>
 </sst>
 </file>
@@ -214,9 +214,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -235,21 +235,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -257,7 +250,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -273,14 +266,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,37 +325,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,22 +334,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,14 +349,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,7 +387,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,31 +447,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,25 +489,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,7 +519,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,91 +543,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,7 +585,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,49 +593,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,6 +615,41 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -670,11 +664,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,10 +686,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -698,19 +698,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -719,112 +719,112 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1237,7 +1237,7 @@
   <dimension ref="A1:F122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
